--- a/simulation_env/environment_maincrops/data/kolbe.xlsx
+++ b/simulation_env/environment_maincrops/data/kolbe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82122BC6-D658-4361-ADEB-4665058FEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7644D6-8EEF-4E44-8070-DD81856EA33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,7 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -898,21 +898,16 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3259,7 +3254,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,13 +3306,13 @@
       <c r="L1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3339,7 +3334,7 @@
       <c r="G2" s="13">
         <v>5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="12">
         <v>4</v>
       </c>
       <c r="I2" s="12"/>
@@ -3347,7 +3342,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3368,7 +3363,7 @@
       <c r="G3" s="13">
         <v>5</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="12">
         <v>4</v>
       </c>
       <c r="I3" s="12"/>
@@ -3376,7 +3371,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="18"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3403,7 +3398,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3430,7 +3425,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3457,7 +3452,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="18"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3484,7 +3479,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="18"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3503,19 +3498,19 @@
       <c r="E8" s="16">
         <v>0.66</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>1</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="18">
+      <c r="N8" s="12">
         <v>2</v>
       </c>
       <c r="O8" s="12"/>
@@ -3536,19 +3531,19 @@
       <c r="E9" s="16">
         <v>0.66</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>1</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="18">
+      <c r="N9" s="12">
         <v>2</v>
       </c>
       <c r="O9" s="12"/>
@@ -3569,19 +3564,19 @@
       <c r="E10" s="16">
         <v>0.66</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>1</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="18">
+      <c r="N10" s="12">
         <v>2</v>
       </c>
       <c r="O10" s="12"/>
@@ -3602,17 +3597,17 @@
       <c r="E11" s="16">
         <v>0.66</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18">
         <v>1</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="18"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3631,19 +3626,19 @@
       <c r="E12" s="16">
         <v>0.66</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <v>1</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="18"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3662,7 +3657,7 @@
       <c r="E13" s="16">
         <v>0.66</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -3670,7 +3665,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="18"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3689,7 +3684,7 @@
       <c r="E14" s="16">
         <v>0.66</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3697,7 +3692,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="18"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="12">
         <v>2</v>
       </c>
@@ -3718,7 +3713,7 @@
       <c r="E15" s="16">
         <v>0.66</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -3726,7 +3721,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="18"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="12">
         <v>2</v>
       </c>
@@ -3745,7 +3740,7 @@
         <v>0.75</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -3753,14 +3748,14 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="18"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="13">
@@ -3770,7 +3765,7 @@
         <v>0.75</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -3778,7 +3773,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="18"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3805,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="18"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3822,7 +3817,7 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -3832,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3859,7 +3854,7 @@
       <c r="M20" s="12">
         <v>3</v>
       </c>
-      <c r="N20" s="18"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3884,7 +3879,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="18"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3911,7 +3906,7 @@
       <c r="M22" s="12">
         <v>3</v>
       </c>
-      <c r="N22" s="18"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3936,20 +3931,20 @@
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="18"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3959,7 +3954,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="18"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4002,22 +3997,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4031,7 +4026,7 @@
       <c r="C2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="12">
@@ -4051,7 +4046,7 @@
       <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="12">
@@ -4071,7 +4066,7 @@
       <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="12">
@@ -4091,7 +4086,7 @@
       <c r="C5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="12">
@@ -4111,7 +4106,7 @@
       <c r="C6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="12">
@@ -4131,7 +4126,7 @@
       <c r="C7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="12">
@@ -4151,7 +4146,7 @@
       <c r="C8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="12">
@@ -4171,7 +4166,7 @@
       <c r="C9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="12">
@@ -4191,7 +4186,7 @@
       <c r="C10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="12">
@@ -4211,7 +4206,7 @@
       <c r="C11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="12">
@@ -4231,7 +4226,7 @@
       <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="12">
@@ -4251,7 +4246,7 @@
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="12">
@@ -4271,7 +4266,7 @@
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="12">
@@ -4291,7 +4286,7 @@
       <c r="C15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="12">
@@ -4311,7 +4306,7 @@
       <c r="C16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="12">
@@ -4331,7 +4326,7 @@
       <c r="C17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="12">
@@ -4351,7 +4346,7 @@
       <c r="C18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="12">
@@ -4371,7 +4366,7 @@
       <c r="C19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="12">
@@ -4391,7 +4386,7 @@
       <c r="C20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="12">
@@ -4411,7 +4406,7 @@
       <c r="C21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="12">
@@ -4431,7 +4426,7 @@
       <c r="C22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="12">
@@ -4451,7 +4446,7 @@
       <c r="C23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="12">
@@ -4462,7 +4457,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -4471,7 +4466,7 @@
       <c r="C24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="12">

--- a/simulation_env/environment_maincrops/data/kolbe.xlsx
+++ b/simulation_env/environment_maincrops/data/kolbe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\cro_symbolic_mbpo\simulation_env\environment_maincrops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FE448-861A-46DE-A782-44BB66CD2F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735D11C7-5FBB-406C-9541-C54A948680EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kolbe_eng" sheetId="5" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1124,9 +1124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1164,7 +1164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1270,7 +1270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1412,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA5C184-D2FE-45BF-9D65-DF4CE14141D2}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B26"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -3557,7 +3557,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -5691,8 +5691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD445817-0304-48E3-854C-20EF2E085F21}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6420,7 +6420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D17E55E-EA9C-4162-945D-B45935A31148}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
@@ -6990,19 +6990,19 @@
       <c r="A25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="23">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
         <v>1300</v>
       </c>
       <c r="G25" s="5">
